--- a/plan/plan_tracklist.xlsx
+++ b/plan/plan_tracklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Sunday</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -963,6 +963,42 @@
   </si>
   <si>
     <t>lwn 668126: toward more predictable and reliable out-of-memory handling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bugfix: Qemu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ARM Linux 5.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必现启动死机</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1400,7 +1436,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1454,11 +1490,14 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="H2" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="40.5">
+    <row r="3" spans="1:8" ht="28.5">
       <c r="A3" s="3">
         <v>21</v>
       </c>
@@ -1523,7 +1562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="40.5">
+    <row r="7" spans="1:8" ht="27">
       <c r="A7" s="3">
         <v>25</v>
       </c>

--- a/plan/plan_tracklist.xlsx
+++ b/plan/plan_tracklist.xlsx
@@ -15,8 +15,55 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>黄涛
+文平波
+高建武
+胡洪兵</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Sunday</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1000,13 +1047,360 @@
       <t>必现启动死机</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Android trace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件抓取原理</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ftrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现原理与开发实践</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> GDB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行远程调试</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BASH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的调试手段</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Android </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用启动速度优化之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Systrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的使用</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linux </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>段错误详解</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> JDB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Android </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用程序</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Android Native </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序中输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> LOG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Android ADB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>介绍及常见错误分析</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如何快速定位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Linux Panic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出错的代码行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过网络使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ADB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linux </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Section Mismatch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详解</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> kGDB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Linux </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内核</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1066,6 +1460,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1118,7 +1532,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1134,6 +1548,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1436,7 +1853,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1493,6 +1910,9 @@
       <c r="F2" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="H2" s="5" t="s">
         <v>52</v>
       </c>
@@ -1510,6 +1930,9 @@
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="H3" s="5" t="s">
         <v>44</v>
       </c>
@@ -1519,13 +1942,16 @@
         <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>45</v>
@@ -1535,14 +1961,14 @@
       <c r="A5" s="3">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>46</v>
@@ -1558,6 +1984,9 @@
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="H6" s="5" t="s">
         <v>47</v>
       </c>
@@ -1572,6 +2001,9 @@
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="H7" s="5" t="s">
         <v>48</v>
       </c>
@@ -1583,16 +2015,25 @@
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="E8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="H8" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="27">
+    <row r="9" spans="1:8" ht="28.5">
       <c r="A9" s="3">
         <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>50</v>
@@ -1605,6 +2046,9 @@
       <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1616,6 +2060,9 @@
       <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="F11" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="28.5">
       <c r="A12" s="3">
@@ -1624,6 +2071,9 @@
       <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="F12" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="28.5">
       <c r="A13" s="3">
@@ -1632,6 +2082,9 @@
       <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="F13" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="28.5">
       <c r="A14" s="3">
@@ -1639,6 +2092,9 @@
       </c>
       <c r="D14" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1740,6 +2196,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
